--- a/tables/CZG_PhenT_allScaled.xlsx
+++ b/tables/CZG_PhenT_allScaled.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t xml:space="preserve">Parameter</t>
   </si>
@@ -35,67 +35,70 @@
     <t xml:space="preserve">intrcpt</t>
   </si>
   <si>
+    <t xml:space="preserve"> 0.013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.442</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.6582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diet_HCOherbivore</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.765</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.4138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diet_HCOomnivore</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.040</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Migratmigrant</t>
+  </si>
+  <si>
     <t xml:space="preserve"> 0.012</t>
   </si>
   <si>
-    <t xml:space="preserve">0.029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.421</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.6739</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Diet_HCOherbivore</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.786</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.4094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Diet_HCOomnivore</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Migratmigrant</t>
-  </si>
-  <si>
     <t xml:space="preserve">0.031</t>
   </si>
   <si>
-    <t xml:space="preserve">0.144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.7042</t>
+    <t xml:space="preserve">0.151</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.6973</t>
   </si>
   <si>
     <t xml:space="preserve">GenLength_y_IUCN.y</t>
   </si>
   <si>
-    <t xml:space="preserve"> 0.002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.362</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.5473</t>
+    <t xml:space="preserve"> 0.001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.5698</t>
   </si>
   <si>
     <t xml:space="preserve">abs_lat</t>
@@ -107,25 +110,25 @@
     <t xml:space="preserve">0.001</t>
   </si>
   <si>
-    <t xml:space="preserve">1.156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.2823</t>
+    <t xml:space="preserve">1.142</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.2851</t>
   </si>
   <si>
     <t xml:space="preserve">Pvalue</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.046</t>
+    <t xml:space="preserve">-0.044</t>
   </si>
   <si>
     <t xml:space="preserve">0.042</t>
   </si>
   <si>
-    <t xml:space="preserve">1.221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.2691</t>
+    <t xml:space="preserve">1.100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.2943</t>
   </si>
 </sst>
 </file>
@@ -599,19 +602,19 @@
         <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G5" s="3"/>
       <c r="H5" s="4"/>
@@ -621,22 +624,22 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E6" t="n">
         <v>1</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G6" s="3"/>
       <c r="H6" s="4"/>
@@ -646,22 +649,22 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E7" t="n">
         <v>1</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G7" s="3"/>
       <c r="H7" s="4"/>
@@ -671,22 +674,22 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E8" t="n">
         <v>1</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G8" s="3"/>
       <c r="H8" s="4"/>
